--- a/189.Rotate/Solution.xlsx
+++ b/189.Rotate/Solution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,6 +183,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -190,9 +193,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -499,112 +499,112 @@
   <dimension ref="B2:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG34" sqref="AG34"/>
+      <selection activeCell="B2" sqref="B2:AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="11" width="3.6328125" customWidth="1"/>
-    <col min="14" max="14" width="6.6328125" customWidth="1"/>
-    <col min="15" max="17" width="3.6328125" customWidth="1"/>
-    <col min="18" max="18" width="6.453125" customWidth="1"/>
-    <col min="20" max="20" width="6.6328125" customWidth="1"/>
-    <col min="21" max="22" width="3.6328125" customWidth="1"/>
-    <col min="25" max="25" width="6.6328125" customWidth="1"/>
-    <col min="27" max="27" width="3.6328125" customWidth="1"/>
+    <col min="2" max="11" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="6.625" customWidth="1"/>
+    <col min="15" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="6.5" customWidth="1"/>
+    <col min="20" max="20" width="6.625" customWidth="1"/>
+    <col min="21" max="22" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="6.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -632,14 +632,14 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="C11">
         <v>1</v>
@@ -686,7 +686,7 @@
       </c>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="H12" s="5">
         <v>9</v>
@@ -705,7 +705,7 @@
       </c>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="G13" s="5">
         <v>8</v>
@@ -716,7 +716,7 @@
       <c r="N13" s="1"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="F14" s="5">
         <v>7</v>
@@ -727,7 +727,7 @@
       <c r="N14" s="1"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="E15" s="5">
         <v>9</v>
@@ -738,7 +738,7 @@
       <c r="N15" s="1"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="D16" s="5">
         <v>8</v>
@@ -749,7 +749,7 @@
       <c r="N16" s="1"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="5">
         <v>7</v>
@@ -760,7 +760,7 @@
       <c r="N17" s="1"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -774,7 +774,7 @@
       <c r="N18" s="1"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -802,14 +802,14 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21">
         <v>1</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="G22" s="5">
         <v>8</v>
@@ -888,7 +888,7 @@
       </c>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="F23" s="5">
         <v>7</v>
@@ -906,7 +906,7 @@
       <c r="T23" s="1"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="E24" s="5">
         <v>6</v>
@@ -921,7 +921,7 @@
       <c r="T24" s="1"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="D25" s="5">
         <v>8</v>
@@ -933,7 +933,7 @@
       <c r="T25" s="1"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="5">
         <v>7</v>
@@ -946,7 +946,7 @@
       <c r="T26" s="1"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -956,12 +956,11 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
       <c r="N27" s="1"/>
       <c r="T27" s="1"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -989,14 +988,14 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
       <c r="C30">
         <v>1</v>
@@ -1051,7 +1050,7 @@
       </c>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="F31" s="5">
         <v>7</v>
@@ -1094,7 +1093,7 @@
       </c>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="E32" s="5">
         <v>6</v>
@@ -1112,7 +1111,7 @@
       <c r="Y32" s="1"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="D33" s="5">
         <v>5</v>
@@ -1125,7 +1124,7 @@
       <c r="Y33" s="1"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="C34" s="5">
         <v>7</v>
@@ -1138,7 +1137,7 @@
       <c r="Y34" s="1"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1152,7 +1151,7 @@
       <c r="Y35" s="1"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1201,7 +1200,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1214,7 +1213,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
